--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.12933850558107</v>
+        <v>103.8730555687219</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.7412283508724</v>
+        <v>142.1236971848563</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.8859251539111</v>
+        <v>128.5596109974338</v>
       </c>
       <c r="AD2" t="n">
-        <v>83129.33850558108</v>
+        <v>103873.0555687219</v>
       </c>
       <c r="AE2" t="n">
-        <v>113741.2283508724</v>
+        <v>142123.6971848563</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.809739550327629e-06</v>
+        <v>8.131103350833541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.212962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>102885.9251539111</v>
+        <v>128559.6109974338</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.46497803780193</v>
+        <v>70.87955175093366</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.73085047785678</v>
+        <v>96.98052969072172</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.8351342217475</v>
+        <v>87.72484405009153</v>
       </c>
       <c r="AD3" t="n">
-        <v>60464.97803780193</v>
+        <v>70879.55175093366</v>
       </c>
       <c r="AE3" t="n">
-        <v>82730.85047785677</v>
+        <v>96980.52969072173</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.24081326576164e-06</v>
+        <v>1.055040447121597e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>74835.13422174749</v>
+        <v>87724.84405009153</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.4892553244693</v>
+        <v>67.90382903760103</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.65933538185624</v>
+        <v>92.90901459472119</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.15219881210061</v>
+        <v>84.04190864044466</v>
       </c>
       <c r="AD4" t="n">
-        <v>57489.2553244693</v>
+        <v>67903.82903760103</v>
       </c>
       <c r="AE4" t="n">
-        <v>78659.33538185623</v>
+        <v>92909.01459472119</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.649301333530943e-06</v>
+        <v>1.124097381740608e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.04783950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>71152.19881210061</v>
+        <v>84041.90864044466</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.89391029515554</v>
+        <v>83.07504598287552</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.05422274929472</v>
+        <v>113.6669429260897</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.84132850798275</v>
+        <v>102.8187294258093</v>
       </c>
       <c r="AD2" t="n">
-        <v>62893.91029515553</v>
+        <v>83075.04598287553</v>
       </c>
       <c r="AE2" t="n">
-        <v>86054.22274929473</v>
+        <v>113666.9429260897</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.679067204621284e-06</v>
+        <v>9.834957515855295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>77841.32850798275</v>
+        <v>102818.7294258093</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.83969256029972</v>
+        <v>64.93034991271077</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.03408671746179</v>
+        <v>88.84056927540765</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.87293879216637</v>
+        <v>80.36175003230625</v>
       </c>
       <c r="AD3" t="n">
-        <v>54839.69256029972</v>
+        <v>64930.34991271076</v>
       </c>
       <c r="AE3" t="n">
-        <v>75034.08671746179</v>
+        <v>88840.56927540764</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.955920141031975e-06</v>
+        <v>1.204619994900971e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.013117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>67872.93879216637</v>
+        <v>80361.75003230624</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.49640487784866</v>
+        <v>57.61185999911495</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.35492066423461</v>
+        <v>78.82708850664285</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.02210016577037</v>
+        <v>71.30394181410063</v>
       </c>
       <c r="AD2" t="n">
-        <v>48496.40487784866</v>
+        <v>57611.85999911495</v>
       </c>
       <c r="AE2" t="n">
-        <v>66354.92066423461</v>
+        <v>78827.08850664285</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476194568768954e-06</v>
+        <v>1.414656892432338e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.128858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>60022.10016577037</v>
+        <v>71303.94181410063</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.63543746526221</v>
+        <v>60.13215775278557</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.28163941778998</v>
+        <v>82.27547108090292</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.6694969891629</v>
+        <v>74.42321559530977</v>
       </c>
       <c r="AD2" t="n">
-        <v>50635.43746526221</v>
+        <v>60132.15775278557</v>
       </c>
       <c r="AE2" t="n">
-        <v>69281.63941778998</v>
+        <v>82275.47108090292</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399942949568227e-06</v>
+        <v>1.348108897313068e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.024691358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>62669.4969891629</v>
+        <v>74423.21559530977</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.648832061135</v>
+        <v>60.14555234865837</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.29996649479099</v>
+        <v>82.29379815790394</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.68607495565717</v>
+        <v>74.43979356180402</v>
       </c>
       <c r="AD3" t="n">
-        <v>50648.832061135</v>
+        <v>60145.55234865837</v>
       </c>
       <c r="AE3" t="n">
-        <v>69299.96649479099</v>
+        <v>82293.79815790393</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411194351946247e-06</v>
+        <v>1.350158658474259e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>62686.07495565717</v>
+        <v>74439.79356180402</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.0036980145078</v>
+        <v>55.80643749012604</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.31253328023357</v>
+        <v>76.35682978022574</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.17463536718904</v>
+        <v>69.06944111350211</v>
       </c>
       <c r="AD2" t="n">
-        <v>47003.6980145078</v>
+        <v>55806.43749012605</v>
       </c>
       <c r="AE2" t="n">
-        <v>64312.53328023357</v>
+        <v>76356.82978022574</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.379890380742726e-06</v>
+        <v>1.446220734212372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.290895061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>58174.63536718904</v>
+        <v>69069.44111350211</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.16404336030666</v>
+        <v>85.51545634033856</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.16031896023546</v>
+        <v>117.0060200404754</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.65098325598569</v>
+        <v>105.8391297068233</v>
       </c>
       <c r="AD2" t="n">
-        <v>65164.04336030666</v>
+        <v>85515.45634033855</v>
       </c>
       <c r="AE2" t="n">
-        <v>89160.31896023545</v>
+        <v>117006.0200404754</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.444668384263381e-06</v>
+        <v>9.367449635047403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.815586419753087</v>
       </c>
       <c r="AH2" t="n">
-        <v>80650.98325598569</v>
+        <v>105839.1297068233</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.7795133980477</v>
+        <v>65.95530939661467</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.31999104963705</v>
+        <v>90.24296405930538</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.0361182196573</v>
+        <v>81.63030222630266</v>
       </c>
       <c r="AD3" t="n">
-        <v>55779.5133980477</v>
+        <v>65955.30939661467</v>
       </c>
       <c r="AE3" t="n">
-        <v>76319.99104963706</v>
+        <v>90242.96405930538</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8433091680339e-06</v>
+        <v>1.177378481927297e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.036265432098765</v>
       </c>
       <c r="AH3" t="n">
-        <v>69036.11821965729</v>
+        <v>81630.30222630267</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.58737181686847</v>
+        <v>65.76316781543547</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.05709446157947</v>
+        <v>89.98006747124781</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.79831211298617</v>
+        <v>81.39249611963153</v>
       </c>
       <c r="AD4" t="n">
-        <v>55587.37181686847</v>
+        <v>65763.16781543546</v>
       </c>
       <c r="AE4" t="n">
-        <v>76057.09446157947</v>
+        <v>89980.06747124781</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.881428953802446e-06</v>
+        <v>1.183936919431365e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.016975308641975</v>
       </c>
       <c r="AH4" t="n">
-        <v>68798.31211298617</v>
+        <v>81392.49611963153</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.42257296130859</v>
+        <v>63.4869317265587</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.51741234501885</v>
+        <v>86.86562083399927</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.45539965807171</v>
+        <v>78.5752878982877</v>
       </c>
       <c r="AD2" t="n">
-        <v>46422.57296130859</v>
+        <v>63486.9317265587</v>
       </c>
       <c r="AE2" t="n">
-        <v>63517.41234501885</v>
+        <v>86865.62083399927</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.163450471757555e-06</v>
+        <v>1.436028532051287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.468364197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>57455.39965807171</v>
+        <v>78575.2878982877</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.5697343393029</v>
+        <v>76.02764562734033</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.40120620354938</v>
+        <v>104.0243788502905</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.01414371677558</v>
+        <v>94.09643813197766</v>
       </c>
       <c r="AD2" t="n">
-        <v>56569.73433930291</v>
+        <v>76027.64562734033</v>
       </c>
       <c r="AE2" t="n">
-        <v>77401.20620354937</v>
+        <v>104024.3788502905</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.458597460312099e-06</v>
+        <v>1.143865602056752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.344907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>70014.14371677558</v>
+        <v>94096.43813197766</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.88573469937362</v>
+        <v>62.70007595223948</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.3605953696071</v>
+        <v>85.78901004994944</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.45460170628139</v>
+        <v>77.60142733643453</v>
       </c>
       <c r="AD3" t="n">
-        <v>52885.73469937362</v>
+        <v>62700.07595223948</v>
       </c>
       <c r="AE3" t="n">
-        <v>72360.59536960709</v>
+        <v>85789.01004994944</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.166249405548018e-06</v>
+        <v>1.269196019900257e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.013117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>65454.6017062814</v>
+        <v>77601.42733643453</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.74110510394247</v>
+        <v>80.74548849159348</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.10865971161647</v>
+        <v>110.479539593696</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.17688587249586</v>
+        <v>99.93552739390961</v>
       </c>
       <c r="AD2" t="n">
-        <v>60741.10510394247</v>
+        <v>80745.48849159348</v>
       </c>
       <c r="AE2" t="n">
-        <v>83108.65971161646</v>
+        <v>110479.539593696</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.921787809172631e-06</v>
+        <v>1.03270808533972e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.572530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>75176.88587249586</v>
+        <v>99935.52739390961</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.12881491405592</v>
+        <v>64.13109611643249</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.06143256016317</v>
+        <v>87.74699497075133</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.99311338251134</v>
+        <v>79.37254492444478</v>
       </c>
       <c r="AD3" t="n">
-        <v>54128.81491405593</v>
+        <v>64131.09611643248</v>
       </c>
       <c r="AE3" t="n">
-        <v>74061.43256016317</v>
+        <v>87746.99497075133</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.047274117030516e-06</v>
+        <v>1.228983069773243e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.001543209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>66993.11338251134</v>
+        <v>79372.54492444478</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.37024487603055</v>
+        <v>100.9598441777084</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9661147243031</v>
+        <v>138.1377128378577</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.47110307345507</v>
+        <v>124.9540434021473</v>
       </c>
       <c r="AD2" t="n">
-        <v>80370.24487603056</v>
+        <v>100959.8441777084</v>
       </c>
       <c r="AE2" t="n">
-        <v>109966.1147243031</v>
+        <v>138137.7128378577</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.015208889615308e-06</v>
+        <v>8.525522722462073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>99471.10307345507</v>
+        <v>124954.0434021473</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.90769781872557</v>
+        <v>69.24521265112583</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.60011097976304</v>
+        <v>94.74435483241338</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.90774951083949</v>
+        <v>85.7020865817683</v>
       </c>
       <c r="AD3" t="n">
-        <v>58907.69781872557</v>
+        <v>69245.21265112582</v>
       </c>
       <c r="AE3" t="n">
-        <v>80600.11097976305</v>
+        <v>94744.35483241337</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.419554197401231e-06</v>
+        <v>1.091281667077661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.182870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>72907.74951083949</v>
+        <v>85702.08658176829</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.71866554402129</v>
+        <v>67.05618037642154</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.604980448226</v>
+        <v>91.74922430087635</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.19847003353928</v>
+        <v>82.99280710446808</v>
       </c>
       <c r="AD4" t="n">
-        <v>56718.66554402129</v>
+        <v>67056.18037642154</v>
       </c>
       <c r="AE4" t="n">
-        <v>77604.98044822601</v>
+        <v>91749.22430087635</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.751371009418803e-06</v>
+        <v>1.147688325958977e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.024691358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>70198.47003353928</v>
+        <v>82992.80710446808</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.10449054354079</v>
+        <v>61.7127264132457</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.2916626495375</v>
+        <v>84.4380748519114</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.48768642475841</v>
+        <v>76.37942349764734</v>
       </c>
       <c r="AD2" t="n">
-        <v>52104.49054354079</v>
+        <v>61712.7264132457</v>
       </c>
       <c r="AE2" t="n">
-        <v>71291.66264953749</v>
+        <v>84438.0748519114</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.159856695791358e-06</v>
+        <v>1.291091593058839e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.08641975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>64487.6864247584</v>
+        <v>76379.42349764734</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.67487643843813</v>
+        <v>61.28311230814304</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.70384567769968</v>
+        <v>83.85025788007357</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.95596987970629</v>
+        <v>75.84770695259525</v>
       </c>
       <c r="AD3" t="n">
-        <v>51674.87643843814</v>
+        <v>61283.11230814304</v>
       </c>
       <c r="AE3" t="n">
-        <v>70703.84567769968</v>
+        <v>83850.25788007356</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.251776754637317e-06</v>
+        <v>1.307666954864509e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.04783950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>63955.96987970629</v>
+        <v>75847.70695259524</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.27226055788989</v>
+        <v>58.52407056591706</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.41648063400338</v>
+        <v>80.0752152480308</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.98234634193351</v>
+        <v>72.4329490910478</v>
       </c>
       <c r="AD2" t="n">
-        <v>49272.26055788989</v>
+        <v>58524.07056591706</v>
       </c>
       <c r="AE2" t="n">
-        <v>67416.48063400338</v>
+        <v>80075.2152480308</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444774345849952e-06</v>
+        <v>1.388956926130113e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>60982.34634193352</v>
+        <v>72432.94909104781</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.81902518629087</v>
+        <v>56.78593734133449</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.42809988636282</v>
+        <v>77.69702468913214</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.18373386213723</v>
+        <v>70.28172970127825</v>
       </c>
       <c r="AD2" t="n">
-        <v>47819.02518629086</v>
+        <v>56785.93734133449</v>
       </c>
       <c r="AE2" t="n">
-        <v>65428.09988636281</v>
+        <v>77697.02468913213</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42881384009925e-06</v>
+        <v>1.42858845017294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.206018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>59183.73386213723</v>
+        <v>70281.72970127825</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.87327493080673</v>
+        <v>62.67740843101176</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.76583854636777</v>
+        <v>85.75799534738523</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.77555500792322</v>
+        <v>77.57337263355363</v>
       </c>
       <c r="AD2" t="n">
-        <v>45873.27493080673</v>
+        <v>62677.40843101176</v>
       </c>
       <c r="AE2" t="n">
-        <v>62765.83854636778</v>
+        <v>85757.99534738524</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778670838140964e-06</v>
+        <v>1.398168187049097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.769290123456789</v>
       </c>
       <c r="AH2" t="n">
-        <v>56775.55500792322</v>
+        <v>77573.37263355363</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.5941132477169</v>
+        <v>78.24397298749921</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.17105073533433</v>
+        <v>107.0568557219206</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.51963817394906</v>
+        <v>96.83949966708843</v>
       </c>
       <c r="AD2" t="n">
-        <v>58594.1132477169</v>
+        <v>78243.9729874992</v>
       </c>
       <c r="AE2" t="n">
-        <v>80171.05073533433</v>
+        <v>107056.8557219206</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.183587654790304e-06</v>
+        <v>1.086431958068757e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.45679012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>72519.63817394906</v>
+        <v>96839.49966708843</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.47471905799715</v>
+        <v>63.38503453673545</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.16646975323144</v>
+        <v>86.72620060349639</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.18356456978469</v>
+        <v>78.44917373890647</v>
       </c>
       <c r="AD3" t="n">
-        <v>53474.71905799715</v>
+        <v>63385.03453673545</v>
       </c>
       <c r="AE3" t="n">
-        <v>73166.46975323145</v>
+        <v>86726.2006034964</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.114856528600757e-06</v>
+        <v>1.250052225548686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.005401234567901</v>
       </c>
       <c r="AH3" t="n">
-        <v>66183.56456978469</v>
+        <v>78449.17373890647</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.56148703253317</v>
+        <v>88.07730057736401</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.44060716032425</v>
+        <v>120.511248346163</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.61820535417245</v>
+        <v>109.009823942636</v>
       </c>
       <c r="AD2" t="n">
-        <v>67561.48703253317</v>
+        <v>88077.30057736402</v>
       </c>
       <c r="AE2" t="n">
-        <v>92440.60716032425</v>
+        <v>120511.248346163</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.222664896560834e-06</v>
+        <v>8.930174946831945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.942901234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>83618.20535417245</v>
+        <v>109009.823942636</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.51441969055669</v>
+        <v>67.77241597152315</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.69376637771047</v>
+        <v>92.72920944017824</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.18334376203475</v>
+        <v>83.87926383749311</v>
       </c>
       <c r="AD3" t="n">
-        <v>57514.41969055669</v>
+        <v>67772.41597152315</v>
       </c>
       <c r="AE3" t="n">
-        <v>78693.76637771048</v>
+        <v>92729.20944017824</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.587234359732899e-06</v>
+        <v>1.126343665796634e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>71183.34376203475</v>
+        <v>83879.26383749311</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.17853507498351</v>
+        <v>66.43653135595</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.86595011161437</v>
+        <v>90.90139317408212</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.52997171501802</v>
+        <v>82.22589179047638</v>
       </c>
       <c r="AD4" t="n">
-        <v>56178.53507498351</v>
+        <v>66436.53135594999</v>
       </c>
       <c r="AE4" t="n">
-        <v>76865.95011161437</v>
+        <v>90901.39317408211</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.811851332860266e-06</v>
+        <v>1.164750665016058e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.024691358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>69529.97171501802</v>
+        <v>82225.89179047638</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.97676615927512</v>
+        <v>70.16737174674881</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.85339274595454</v>
+        <v>96.00609358983219</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.80492859618499</v>
+        <v>86.84340676304092</v>
       </c>
       <c r="AD2" t="n">
-        <v>53976.76615927512</v>
+        <v>70167.37174674882</v>
       </c>
       <c r="AE2" t="n">
-        <v>73853.39274595454</v>
+        <v>96006.09358983219</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955729620732221e-06</v>
+        <v>1.276587172948325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>66804.928596185</v>
+        <v>86843.40676304091</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.9713917765948</v>
+        <v>59.34972526022512</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.37306281092749</v>
+        <v>81.20491242609685</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.84763365846382</v>
+        <v>73.45482955597956</v>
       </c>
       <c r="AD2" t="n">
-        <v>49971.3917765948</v>
+        <v>59349.72526022512</v>
       </c>
       <c r="AE2" t="n">
-        <v>68373.0628109275</v>
+        <v>81204.91242609685</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.420915212485846e-06</v>
+        <v>1.367253562773234e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61847.63365846382</v>
+        <v>73454.82955597955</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.50280928739662</v>
+        <v>64.21666303684991</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.57314816123494</v>
+        <v>87.8640714062125</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.45599156481433</v>
+        <v>79.47844774922341</v>
       </c>
       <c r="AD2" t="n">
-        <v>54502.80928739662</v>
+        <v>64216.66303684991</v>
       </c>
       <c r="AE2" t="n">
-        <v>74573.14816123495</v>
+        <v>87864.0714062125</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.753983250694071e-06</v>
+        <v>1.206549818328029e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.233024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>67455.99156481432</v>
+        <v>79478.4477492234</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.27583263203167</v>
+        <v>61.98968638148496</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.52610045409004</v>
+        <v>84.81702369906762</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.69974981428007</v>
+        <v>76.72220599868912</v>
       </c>
       <c r="AD3" t="n">
-        <v>52275.83263203166</v>
+        <v>61989.68638148496</v>
       </c>
       <c r="AE3" t="n">
-        <v>71526.10045409005</v>
+        <v>84817.02369906762</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.214821709623668e-06</v>
+        <v>1.288875245895966e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.024691358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>64699.74981428006</v>
+        <v>76722.20599868913</v>
       </c>
     </row>
   </sheetData>
